--- a/BillofMaterials .xlsx
+++ b/BillofMaterials .xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
   <si>
     <t>Liquid Handler</t>
   </si>
@@ -180,21 +180,6 @@
     <t xml:space="preserve">Z Motor Mount </t>
   </si>
   <si>
-    <t>A Motor Mount</t>
-  </si>
-  <si>
-    <t>A Rail Linear Plate 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Rail Linear Plate 2 </t>
-  </si>
-  <si>
-    <t>A Rail End Plate 1</t>
-  </si>
-  <si>
-    <t>A Rail End Plate 2</t>
-  </si>
-  <si>
     <t>Pipette Stopper 1</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
     <t>L brackets</t>
   </si>
   <si>
-    <t>A Rail Top Plate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electronics </t>
   </si>
   <si>
@@ -252,21 +234,6 @@
     <t>Heat Pad</t>
   </si>
   <si>
-    <t>Housing Sides</t>
-  </si>
-  <si>
-    <t>Housing Top</t>
-  </si>
-  <si>
-    <t>Housing Front</t>
-  </si>
-  <si>
-    <t>Housing Back</t>
-  </si>
-  <si>
-    <t>Acrylic 6mm Sheet</t>
-  </si>
-  <si>
     <t>Limit Switch Plate</t>
   </si>
   <si>
@@ -345,12 +312,6 @@
     <t>8 Channel p250 Pipette</t>
   </si>
   <si>
-    <t>Izone 5MP Autofocus Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera USB </t>
-  </si>
-  <si>
     <t>Izone</t>
   </si>
   <si>
@@ -420,16 +381,52 @@
     <t>USB A Male to USB B Male Cable (Rpi - Arduino)</t>
   </si>
   <si>
-    <t>Housing Base Left</t>
-  </si>
-  <si>
-    <t>Housing Base Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing Base Connector </t>
-  </si>
-  <si>
     <t>Sponge (for clamps)</t>
+  </si>
+  <si>
+    <t>6mm Clear Acrylic Housing Top</t>
+  </si>
+  <si>
+    <t>6mm Clear Acrylic Housing Side(Small)</t>
+  </si>
+  <si>
+    <t>6mm Clear Acrylic Housing Side (Large)</t>
+  </si>
+  <si>
+    <t>6mm Clear Acrylic Housing Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6mm Clear Acrylic Housing Front </t>
+  </si>
+  <si>
+    <t>6mm Clear Acrylic Housing Door</t>
+  </si>
+  <si>
+    <t>6mm Clear Acrylic Base Plate</t>
+  </si>
+  <si>
+    <t>E Motor Mount</t>
+  </si>
+  <si>
+    <t>E Rail End Plate 1</t>
+  </si>
+  <si>
+    <t>E Rail End Plate 2</t>
+  </si>
+  <si>
+    <t>E Rail Linear Plate 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Rail Linear Plate 2 </t>
+  </si>
+  <si>
+    <t>E Rail Top Plate</t>
+  </si>
+  <si>
+    <t>Camera USB (Optional)</t>
+  </si>
+  <si>
+    <t>Izone 5MP Autofocus Camera (Optional)</t>
   </si>
 </sst>
 </file>
@@ -803,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D148"/>
+  <dimension ref="B1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,9 +910,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
     </row>
@@ -1022,7 +1017,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1044,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1066,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -1107,10 +1102,10 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1118,10 +1113,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>33</v>
@@ -1129,10 +1124,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1140,10 +1135,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1192,7 +1187,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1203,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1214,7 +1209,7 @@
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1310,10 +1305,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1321,10 +1316,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <v>30</v>
@@ -1332,7 +1327,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -1373,7 +1368,7 @@
         <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1384,7 +1379,7 @@
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1395,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1406,7 +1401,7 @@
         <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1417,7 +1412,7 @@
         <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1428,7 +1423,7 @@
         <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -1513,10 +1508,10 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1527,7 +1522,7 @@
         <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1535,10 +1530,10 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1546,10 +1541,10 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1557,10 +1552,10 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1568,10 +1563,10 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1579,10 +1574,10 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1590,10 +1585,10 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1601,10 +1596,10 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -1612,7 +1607,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1620,10 +1615,10 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1631,10 +1626,10 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1642,10 +1637,10 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1653,10 +1648,10 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1664,7 +1659,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1672,10 +1667,10 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1683,10 +1678,10 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -1694,10 +1689,10 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1705,7 +1700,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -1713,7 +1708,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1721,7 +1716,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -1729,15 +1724,15 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -1745,10 +1740,10 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -1756,10 +1751,10 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1767,10 +1762,10 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -1778,10 +1773,10 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1789,10 +1784,10 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -1800,10 +1795,10 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -1811,10 +1806,10 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -1822,10 +1817,10 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -1833,10 +1828,10 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
         <v>75</v>
-      </c>
-      <c r="C108" t="s">
-        <v>86</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -1844,7 +1839,7 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -1852,10 +1847,10 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -1863,10 +1858,10 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -1874,7 +1869,7 @@
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -1882,10 +1877,10 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -1893,7 +1888,7 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -1901,10 +1896,10 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" t="s">
         <v>84</v>
-      </c>
-      <c r="C115" t="s">
-        <v>95</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -1912,10 +1907,10 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -1923,10 +1918,10 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -1934,7 +1929,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -1942,10 +1937,10 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -1953,10 +1948,10 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C121" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -1964,10 +1959,10 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -1975,10 +1970,10 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -1986,7 +1981,7 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D124">
         <v>12</v>
@@ -1994,10 +1989,10 @@
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2005,43 +2000,43 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C127" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2049,29 +2044,18 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C132" t="s">
-        <v>87</v>
-      </c>
-      <c r="D132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2079,7 +2063,7 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -2087,7 +2071,7 @@
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -2095,10 +2079,10 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C136" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D136">
         <v>20</v>
@@ -2106,15 +2090,15 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C139" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2122,10 +2106,10 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C140" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -2133,7 +2117,7 @@
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2141,7 +2125,7 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2149,10 +2133,10 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C143" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2160,10 +2144,10 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C144" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2171,10 +2155,10 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C145" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2182,10 +2166,10 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C146" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -2193,10 +2177,10 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C147" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -2204,9 +2188,20 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149">
         <v>1</v>
       </c>
     </row>

--- a/BillofMaterials .xlsx
+++ b/BillofMaterials .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="140">
   <si>
     <t>Liquid Handler</t>
   </si>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>Izone 5MP Autofocus Camera (Optional)</t>
+  </si>
+  <si>
+    <t>M5 x 5 Steel Grub Screw</t>
+  </si>
+  <si>
+    <t>M5 x 4 Magnet</t>
+  </si>
+  <si>
+    <t>20mm x 20mm Rubber Feet</t>
+  </si>
+  <si>
+    <t>Tip Box for Tip Waste</t>
   </si>
 </sst>
 </file>
@@ -800,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D149"/>
+  <dimension ref="B1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2070,7 @@
         <v>108</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
@@ -2066,7 +2078,7 @@
         <v>85</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
@@ -2088,36 +2100,33 @@
         <v>20</v>
       </c>
     </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+    </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>87</v>
-      </c>
-      <c r="C139" t="s">
-        <v>115</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>88</v>
-      </c>
-      <c r="C140" t="s">
-        <v>89</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="C141" t="s">
+        <v>115</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2125,7 +2134,10 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C142" t="s">
+        <v>89</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2133,10 +2145,7 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>92</v>
-      </c>
-      <c r="C143" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2144,10 +2153,7 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>93</v>
-      </c>
-      <c r="C144" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2155,7 +2161,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C145" t="s">
         <v>76</v>
@@ -2166,7 +2172,7 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C146" t="s">
         <v>76</v>
@@ -2177,18 +2183,21 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="C148" t="s">
+        <v>76</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -2196,13 +2205,51 @@
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>127</v>
       </c>
-      <c r="C149" t="s">
-        <v>76</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
+      <c r="C151" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>139</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>138</v>
+      </c>
+      <c r="C154" t="s">
+        <v>81</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/BillofMaterials .xlsx
+++ b/BillofMaterials .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
   <si>
     <t>Liquid Handler</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>Tip Box for Tip Waste</t>
+  </si>
+  <si>
+    <t>http://nz.rs-online.com/web/p/fixed-height-mounts-feet/1034225/</t>
   </si>
 </sst>
 </file>
@@ -812,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D154"/>
+  <dimension ref="B1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>92</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>93</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>94</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>95</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>78</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>96</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>127</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>139</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>138</v>
       </c>
@@ -2250,6 +2253,9 @@
       </c>
       <c r="D154">
         <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/BillofMaterials .xlsx
+++ b/BillofMaterials .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="150">
   <si>
     <t>Liquid Handler</t>
   </si>
@@ -399,9 +399,6 @@
     <t xml:space="preserve">6mm Clear Acrylic Housing Front </t>
   </si>
   <si>
-    <t>6mm Clear Acrylic Housing Door</t>
-  </si>
-  <si>
     <t>6mm Clear Acrylic Base Plate</t>
   </si>
   <si>
@@ -442,6 +439,36 @@
   </si>
   <si>
     <t>http://nz.rs-online.com/web/p/fixed-height-mounts-feet/1034225/</t>
+  </si>
+  <si>
+    <t>M5 x 1mm Washer Form C</t>
+  </si>
+  <si>
+    <t>6mm Clear Acrylic Housing Door (Two Sides)</t>
+  </si>
+  <si>
+    <t>M4 x 8 Door Fastener Screws</t>
+  </si>
+  <si>
+    <t>Bunnings</t>
+  </si>
+  <si>
+    <t>M5 x 8 Screws Button</t>
+  </si>
+  <si>
+    <t>M3 x 10 Button Screw</t>
+  </si>
+  <si>
+    <t>3mm Acrylic Holding Plates</t>
+  </si>
+  <si>
+    <t>M5 x 3mm Spacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5 Locknut </t>
+  </si>
+  <si>
+    <t>8mm Acme Nut Block</t>
   </si>
 </sst>
 </file>
@@ -815,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F154"/>
+  <dimension ref="B1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,23 +1054,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>75</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1051,10 +1086,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1062,51 +1097,51 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1117,40 +1152,40 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -1159,25 +1194,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1188,32 +1223,32 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>75</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>76</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1221,7 +1256,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
@@ -1232,29 +1267,29 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1265,40 +1300,40 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>34</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
         <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -1309,67 +1344,67 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>102</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>77</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -1380,29 +1415,29 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
         <v>75</v>
@@ -1413,7 +1448,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
@@ -1423,96 +1458,96 @@
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>75</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
       <c r="D69">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -1523,29 +1558,29 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>128</v>
       </c>
       <c r="C78" t="s">
         <v>76</v>
@@ -1556,7 +1591,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
         <v>76</v>
@@ -1567,7 +1602,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
         <v>76</v>
@@ -1578,7 +1613,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
         <v>76</v>
@@ -1589,7 +1624,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
         <v>76</v>
@@ -1600,7 +1635,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>76</v>
@@ -1611,18 +1646,21 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>96</v>
+        <v>132</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1630,21 +1668,18 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1652,7 +1687,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s">
         <v>76</v>
@@ -1663,7 +1698,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
         <v>76</v>
@@ -1674,7 +1709,10 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>120</v>
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1682,10 +1720,10 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1693,21 +1731,18 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1715,7 +1750,10 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>112</v>
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>77</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -1723,7 +1761,10 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>113</v>
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1731,45 +1772,39 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>114</v>
       </c>
-      <c r="D96">
+      <c r="D98">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1777,10 +1812,10 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -1788,10 +1823,10 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1799,21 +1834,21 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -1821,70 +1856,73 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
         <v>75</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
         <v>75</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>70</v>
+        <v>117</v>
+      </c>
+      <c r="C112" t="s">
+        <v>118</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -1892,29 +1930,29 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s">
         <v>75</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -1922,21 +1960,18 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -1944,40 +1979,40 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="C118" t="s">
+        <v>97</v>
       </c>
       <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>104</v>
-      </c>
-      <c r="C121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -1985,10 +2020,10 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -1996,97 +2031,106 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C124" t="s">
+        <v>76</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>121</v>
-      </c>
-      <c r="C126" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
         <v>76</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C129" t="s">
         <v>76</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
         <v>76</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
         <v>76</v>
       </c>
       <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>108</v>
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>76</v>
       </c>
       <c r="D133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>85</v>
-      </c>
-      <c r="D134">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C135" t="s">
+        <v>81</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -2094,18 +2138,18 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>110</v>
-      </c>
-      <c r="C136" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>136</v>
+        <v>85</v>
+      </c>
+      <c r="C137" t="s">
+        <v>81</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -2113,149 +2157,234 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139">
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
-        <v>86</v>
+      <c r="B140" t="s">
+        <v>114</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>87</v>
-      </c>
-      <c r="C141" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C142" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>90</v>
+        <v>135</v>
+      </c>
+      <c r="C143" t="s">
+        <v>143</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" t="s">
+        <v>81</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" t="s">
+        <v>89</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>90</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>91</v>
       </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>92</v>
       </c>
-      <c r="C145" t="s">
-        <v>76</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="C151" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>93</v>
       </c>
-      <c r="C146" t="s">
-        <v>76</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="C152" t="s">
+        <v>76</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>94</v>
       </c>
-      <c r="C147" t="s">
-        <v>76</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="C153" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>95</v>
       </c>
-      <c r="C148" t="s">
-        <v>76</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="C154" t="s">
+        <v>76</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>78</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C155" t="s">
         <v>79</v>
       </c>
-      <c r="D149">
+      <c r="D155">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>96</v>
       </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>127</v>
-      </c>
-      <c r="C151" t="s">
-        <v>76</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>138</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>146</v>
+      </c>
+      <c r="C160" t="s">
+        <v>76</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>137</v>
+      </c>
+      <c r="C161" t="s">
+        <v>81</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
         <v>139</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>138</v>
-      </c>
-      <c r="C154" t="s">
-        <v>81</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="F154" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
